--- a/data/trans_dic/P16A01-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P16A01-Estudios-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07515814293498584</v>
+        <v>0.07497349187058461</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.09297952149608722</v>
+        <v>0.09306151492024706</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.06517575505410939</v>
+        <v>0.06443301229294329</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.05854171772852931</v>
+        <v>0.05928577107875249</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.04678926165799997</v>
+        <v>0.04684197941044654</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.06386741609133645</v>
+        <v>0.06445632290145122</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.05561202641850936</v>
+        <v>0.05349323152827329</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.06787309198329657</v>
+        <v>0.06760293925400671</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.06323585184561682</v>
+        <v>0.06310049984889174</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.07977706115685003</v>
+        <v>0.08109397588594291</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.06325222809775649</v>
+        <v>0.06448023315767779</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.06917963230610637</v>
+        <v>0.06918795707464989</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1104737561472125</v>
+        <v>0.110920696647834</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1362539858057934</v>
+        <v>0.135375904934351</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1050248840815929</v>
+        <v>0.1042228610861763</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.1024188440122821</v>
+        <v>0.1037286554213297</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.0718512216009887</v>
+        <v>0.07242459458851472</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.09510659878426374</v>
+        <v>0.09524655620671955</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.08955968099853585</v>
+        <v>0.09111702692607822</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.09698500041698169</v>
+        <v>0.09700143873901673</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.08466096171068009</v>
+        <v>0.0850406080986907</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.104753968377116</v>
+        <v>0.1057116100667403</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.09029974279476799</v>
+        <v>0.08869430711883179</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.09538561105537308</v>
+        <v>0.09358545851695343</v>
       </c>
     </row>
     <row r="7">
@@ -809,7 +809,7 @@
         <v>0.07658965259267021</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>0.06587963187443553</v>
+        <v>0.06587963187443552</v>
       </c>
       <c r="G7" s="5" t="n">
         <v>0.06028873280548475</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.04703776529577969</v>
+        <v>0.04662072362478713</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.07175246639596852</v>
+        <v>0.07257763049981668</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.06336945026041403</v>
+        <v>0.06473712601219229</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.05508434406026368</v>
+        <v>0.05530074936809989</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.04874341420184677</v>
+        <v>0.04846329375617831</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.07595017578354009</v>
+        <v>0.07621460507582403</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.07558095369139212</v>
+        <v>0.07625646153143145</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.06647803379178023</v>
+        <v>0.06683456362062851</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.05022007922150143</v>
+        <v>0.05023139158850158</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.07680048802797809</v>
+        <v>0.07654569048222272</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.07450304408537051</v>
+        <v>0.07439156992405395</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.06334395364004934</v>
+        <v>0.06377894567371689</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.06882334108961095</v>
+        <v>0.07027761335806484</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.09775138308561769</v>
+        <v>0.09887488889292785</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.08820018801941747</v>
+        <v>0.0890157024000164</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.07973937312041358</v>
+        <v>0.07943886602290107</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.07304667515500864</v>
+        <v>0.07333272320835241</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.103906538419963</v>
+        <v>0.1043181774095072</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1002821677106212</v>
+        <v>0.102237406823218</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08794043257772803</v>
+        <v>0.08765719006711133</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.06750126699461401</v>
+        <v>0.06737805341401271</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.0965744763956685</v>
+        <v>0.0960400721998094</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.09166151660048653</v>
+        <v>0.09101550237491307</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.07998141113302347</v>
+        <v>0.07982044163215621</v>
       </c>
     </row>
     <row r="10">
@@ -945,7 +945,7 @@
         <v>0.0719588530998146</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.08529025282684231</v>
+        <v>0.08529025282684229</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>0.09356964353407449</v>
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.04334786144332551</v>
+        <v>0.04505603710303673</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.0698682286967135</v>
+        <v>0.06912419861391482</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.05008343978781367</v>
+        <v>0.0525848142174769</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.06246549415331667</v>
+        <v>0.06178890824297011</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.06977604195131541</v>
+        <v>0.069502262535877</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.05543853985937987</v>
+        <v>0.05473158729089136</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.06198811329237693</v>
+        <v>0.06367106622152377</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05871318265576498</v>
+        <v>0.05802802525716704</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.06306287557383304</v>
+        <v>0.06198288723957498</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.07099170601970414</v>
+        <v>0.06861737059013595</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.06305958028582777</v>
+        <v>0.06388837695228548</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.064984896444209</v>
+        <v>0.06491951537188782</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.08681441087616464</v>
+        <v>0.08734509758518064</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1306080453047538</v>
+        <v>0.1337955211555668</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.0976077247006862</v>
+        <v>0.10089299982545</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1132765119658997</v>
+        <v>0.1114096146749563</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.1264804287061272</v>
+        <v>0.1192317303119564</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.109778903265266</v>
+        <v>0.1072084093960158</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.1109302856852635</v>
+        <v>0.1090488368611581</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.09247962902430851</v>
+        <v>0.09356628070477449</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.09749760764510319</v>
+        <v>0.09621777905656213</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.1115542632624272</v>
+        <v>0.1111059581049734</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.09358242735381361</v>
+        <v>0.09810286427051311</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.09632740545277892</v>
+        <v>0.09493625528713272</v>
       </c>
     </row>
     <row r="13">
@@ -1081,7 +1081,7 @@
         <v>0.07731276747443452</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.072071307613725</v>
+        <v>0.07207130761372502</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.06424134627277592</v>
@@ -1105,7 +1105,7 @@
         <v>0.08018151980480938</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.07464213451413662</v>
+        <v>0.07464213451413661</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.06074742996258536</v>
+        <v>0.06104324235792345</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.08415182603859675</v>
+        <v>0.08425885597490594</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.06840139806658579</v>
+        <v>0.06816042822878082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.0625275131944277</v>
+        <v>0.06229384365844547</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.0562150511440507</v>
+        <v>0.05595079355774964</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.07418707130618239</v>
+        <v>0.07501334628861676</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.07403228127656099</v>
+        <v>0.07394984259076559</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.06981400573439341</v>
+        <v>0.06934842851829201</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.06078587985487535</v>
+        <v>0.06120673131518756</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.08138480619994976</v>
+        <v>0.08186190610277524</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.07374320087744088</v>
+        <v>0.07338130205979071</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.06881056133166759</v>
+        <v>0.06858919082866174</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.0785301469169319</v>
+        <v>0.0778587709875703</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.1066905639331877</v>
+        <v>0.1049800712669766</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.08652199665600728</v>
+        <v>0.08738488444728644</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.08298070762846411</v>
+        <v>0.08251525449382412</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.07352302162972016</v>
+        <v>0.07263334112364482</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.09393418561231986</v>
+        <v>0.09405361208020097</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.09382883687710242</v>
+        <v>0.09330166875151336</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.08563932237108168</v>
+        <v>0.08511597168308989</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.07315267519894661</v>
+        <v>0.07349906509656892</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.09619435102826705</v>
+        <v>0.09562754162665917</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.08751971739902975</v>
+        <v>0.08739346969763895</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.08092820556642065</v>
+        <v>0.08091446424564636</v>
       </c>
     </row>
     <row r="16">
@@ -1463,40 +1463,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>77542</v>
+        <v>77352</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>90361</v>
+        <v>90441</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>49165</v>
+        <v>48605</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33810</v>
+        <v>34240</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>61533</v>
+        <v>61602</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>85037</v>
+        <v>85821</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>55315</v>
+        <v>53208</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>55641</v>
+        <v>55420</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>148404</v>
+        <v>148086</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>183751</v>
+        <v>186784</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>110629</v>
+        <v>112776</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>96667</v>
+        <v>96678</v>
       </c>
     </row>
     <row r="7">
@@ -1507,40 +1507,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>113978</v>
+        <v>114439</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>132417</v>
+        <v>131563</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>79225</v>
+        <v>78620</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>59151</v>
+        <v>59908</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>94492</v>
+        <v>95247</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>126631</v>
+        <v>126817</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>89081</v>
+        <v>90630</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>79507</v>
+        <v>79520</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>198685</v>
+        <v>199576</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>241280</v>
+        <v>243486</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>157935</v>
+        <v>155127</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>133285</v>
+        <v>130769</v>
       </c>
     </row>
     <row r="8">
@@ -1643,40 +1643,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>79606</v>
+        <v>78901</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>140636</v>
+        <v>142254</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>131579</v>
+        <v>134419</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>122869</v>
+        <v>123352</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>77389</v>
+        <v>76944</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>133053</v>
+        <v>133516</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>150278</v>
+        <v>151621</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>144253</v>
+        <v>145027</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>164725</v>
+        <v>164762</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>285074</v>
+        <v>284128</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>302831</v>
+        <v>302378</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>278746</v>
+        <v>280660</v>
       </c>
     </row>
     <row r="11">
@@ -1687,40 +1687,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>116476</v>
+        <v>118937</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>191595</v>
+        <v>193797</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>183138</v>
+        <v>184831</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>177864</v>
+        <v>177194</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>115974</v>
+        <v>116428</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>182029</v>
+        <v>182750</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>199391</v>
+        <v>203279</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>190826</v>
+        <v>190211</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>221409</v>
+        <v>221005</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>358472</v>
+        <v>356488</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>372575</v>
+        <v>369949</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>351959</v>
+        <v>351250</v>
       </c>
     </row>
     <row r="12">
@@ -1823,40 +1823,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>23902</v>
+        <v>24844</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>33560</v>
+        <v>33203</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>27390</v>
+        <v>28758</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>44450</v>
+        <v>43968</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>33242</v>
+        <v>33112</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>25372</v>
+        <v>25048</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>34040</v>
+        <v>34964</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>43147</v>
+        <v>42643</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>64817</v>
+        <v>63707</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>66589</v>
+        <v>64362</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>69115</v>
+        <v>70023</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>93998</v>
+        <v>93904</v>
       </c>
     </row>
     <row r="15">
@@ -1867,40 +1867,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>47870</v>
+        <v>48163</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>62735</v>
+        <v>64266</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>53380</v>
+        <v>55177</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>80606</v>
+        <v>79278</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>60257</v>
+        <v>56803</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>50241</v>
+        <v>49064</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>60916</v>
+        <v>59883</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>67961</v>
+        <v>68760</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>100210</v>
+        <v>98895</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>104636</v>
+        <v>104216</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>102569</v>
+        <v>107523</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>139334</v>
+        <v>137322</v>
       </c>
     </row>
     <row r="16">
@@ -2003,40 +2003,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>198980</v>
+        <v>199949</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>287142</v>
+        <v>287507</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>231034</v>
+        <v>230220</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>220078</v>
+        <v>219255</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>189962</v>
+        <v>189069</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>262694</v>
+        <v>265620</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>261489</v>
+        <v>261198</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>260030</v>
+        <v>258295</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>404513</v>
+        <v>407314</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>565882</v>
+        <v>569199</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>509545</v>
+        <v>507044</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>498484</v>
+        <v>496881</v>
       </c>
     </row>
     <row r="19">
@@ -2047,40 +2047,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>257227</v>
+        <v>255028</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>364049</v>
+        <v>358212</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>292238</v>
+        <v>295153</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>292067</v>
+        <v>290429</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>248449</v>
+        <v>245442</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>332618</v>
+        <v>333041</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>331413</v>
+        <v>329551</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>318973</v>
+        <v>317023</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>486811</v>
+        <v>489116</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>668855</v>
+        <v>664914</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>604737</v>
+        <v>603864</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>586268</v>
+        <v>586169</v>
       </c>
     </row>
     <row r="20">
